--- a/Results/Graphs_fiscal/LAFPP.xlsx
+++ b/Results/Graphs_fiscal/LAFPP.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Deterministic Projection" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -25,12 +25,6 @@
   </si>
   <si>
     <t>Employer contribution as % of payroll</t>
-  </si>
-  <si>
-    <t>Employer contribution as % of Projected General Gund</t>
-  </si>
-  <si>
-    <t>Projected General Gund</t>
   </si>
   <si>
     <t>Funded ratio (market value asset)</t>
@@ -46,14 +40,20 @@
   <si>
     <t>Year</t>
   </si>
+  <si>
+    <t>Projected General Fund</t>
+  </si>
+  <si>
+    <t>Employer contribution as % of Projected General Fund</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -569,7 +569,7 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -577,36 +577,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="33" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -967,7 +967,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,25 +992,25 @@
     <row r="2" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>3</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I2" s="4"/>
     </row>
@@ -1766,15 +1766,15 @@
     </row>
     <row r="33" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
+      <c r="B33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
